--- a/ptal.xlsx
+++ b/ptal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogva\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Bankaskipan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{444A208E-2AE9-4411-BB2C-0D513723EF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5695D3F6-FE4B-419F-B00C-16A1037272EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{119B06C0-C09A-4053-AA4D-9B9CA03AA79F}"/>
+    <workbookView xWindow="4700" yWindow="2760" windowWidth="14400" windowHeight="7360" xr2:uid="{119B06C0-C09A-4053-AA4D-9B9CA03AA79F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,11 +404,11 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <f>A1*B1</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -419,11 +419,11 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C9" si="0">A2*B2</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>122456900</v>
@@ -449,11 +449,11 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>535724105</v>
@@ -479,11 +479,11 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>991112006</v>
@@ -494,11 +494,14 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>444333332</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -506,11 +509,14 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>696969698</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -518,17 +524,17 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11">
         <f>SUM(C1:C9)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
